--- a/PSNR.xlsx
+++ b/PSNR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Fangming LBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{818610AF-9C57-4CC6-8902-4FAF4B2C1B54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6F9E3192-2EAC-4300-9EA2-F777DE9CFBAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="6735" xr2:uid="{94BD9BE2-6941-4EF8-BA3D-7E78F72F523C}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01059EE-D148-4ADF-8404-9FA9DB16EA9E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,6 +501,856 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>52.434626436442031</v>
+      </c>
+      <c r="C2">
+        <v>52.49579499308021</v>
+      </c>
+      <c r="D2">
+        <v>52.49579499308021</v>
+      </c>
+      <c r="E2">
+        <v>52.49579499308021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>52.496684991452355</v>
+      </c>
+      <c r="C3">
+        <v>52.488977724779829</v>
+      </c>
+      <c r="D3">
+        <v>52.488977724779829</v>
+      </c>
+      <c r="E3">
+        <v>52.488977724779829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>52.419929485634277</v>
+      </c>
+      <c r="C4">
+        <v>52.48434019792186</v>
+      </c>
+      <c r="D4">
+        <v>52.48434019792186</v>
+      </c>
+      <c r="E4">
+        <v>52.48434019792186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>52.487299749738256</v>
+      </c>
+      <c r="C5">
+        <v>52.480791395892972</v>
+      </c>
+      <c r="D5">
+        <v>52.480791395892972</v>
+      </c>
+      <c r="E5">
+        <v>52.480791395892972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>52.586921643614431</v>
+      </c>
+      <c r="C6">
+        <v>52.518895026832418</v>
+      </c>
+      <c r="D6">
+        <v>52.518895026832418</v>
+      </c>
+      <c r="E6">
+        <v>52.518895026832418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>53.200175140427213</v>
+      </c>
+      <c r="C7">
+        <v>52.503118178513908</v>
+      </c>
+      <c r="D7">
+        <v>52.503118178513908</v>
+      </c>
+      <c r="E7">
+        <v>52.503118178513908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>52.545617857363126</v>
+      </c>
+      <c r="C8">
+        <v>52.470752176203476</v>
+      </c>
+      <c r="D8">
+        <v>52.470752176203476</v>
+      </c>
+      <c r="E8">
+        <v>52.470752176203476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>52.56034566173993</v>
+      </c>
+      <c r="C9">
+        <v>52.512041429688935</v>
+      </c>
+      <c r="D9">
+        <v>52.512041429688935</v>
+      </c>
+      <c r="E9">
+        <v>52.512041429688935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>52.331729698730413</v>
+      </c>
+      <c r="C10">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="D10">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="E10">
+        <v>52.492138025867767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>52.231028494826255</v>
+      </c>
+      <c r="C11">
+        <v>52.488188008706459</v>
+      </c>
+      <c r="D11">
+        <v>52.488188008706459</v>
+      </c>
+      <c r="E11">
+        <v>52.488188008706459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>52.402087586674298</v>
+      </c>
+      <c r="C12">
+        <v>52.495201762142152</v>
+      </c>
+      <c r="D12">
+        <v>52.495201762142152</v>
+      </c>
+      <c r="E12">
+        <v>52.495201762142152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>53.708619788001599</v>
+      </c>
+      <c r="C13">
+        <v>52.510751382206102</v>
+      </c>
+      <c r="D13">
+        <v>52.510751382206102</v>
+      </c>
+      <c r="E13">
+        <v>52.510751382206102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>53.126151775837215</v>
+      </c>
+      <c r="C14">
+        <v>52.505991446775539</v>
+      </c>
+      <c r="D14">
+        <v>52.505991446775539</v>
+      </c>
+      <c r="E14">
+        <v>52.505991446775539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>52.56416098745342</v>
+      </c>
+      <c r="C15">
+        <v>52.478919585514056</v>
+      </c>
+      <c r="D15">
+        <v>52.478919585514056</v>
+      </c>
+      <c r="E15">
+        <v>52.478919585514056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>52.593692259225506</v>
+      </c>
+      <c r="C16">
+        <v>52.47793474610237</v>
+      </c>
+      <c r="D16">
+        <v>52.47793474610237</v>
+      </c>
+      <c r="E16">
+        <v>52.47793474610237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>52.525958587603597</v>
+      </c>
+      <c r="C17">
+        <v>52.468491633446064</v>
+      </c>
+      <c r="D17">
+        <v>52.468491633446064</v>
+      </c>
+      <c r="E17">
+        <v>52.468491633446064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>52.481974007723558</v>
+      </c>
+      <c r="C18">
+        <v>52.464759399666157</v>
+      </c>
+      <c r="D18">
+        <v>52.464759399666157</v>
+      </c>
+      <c r="E18">
+        <v>52.464759399666157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>52.471538727834535</v>
+      </c>
+      <c r="C19">
+        <v>52.490952643446469</v>
+      </c>
+      <c r="D19">
+        <v>52.490952643446469</v>
+      </c>
+      <c r="E19">
+        <v>52.490952643446469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>52.530939829196456</v>
+      </c>
+      <c r="C20">
+        <v>52.507577512327039</v>
+      </c>
+      <c r="D20">
+        <v>52.507577512327039</v>
+      </c>
+      <c r="E20">
+        <v>52.507577512327039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>52.505198631161612</v>
+      </c>
+      <c r="C21">
+        <v>52.470653867265028</v>
+      </c>
+      <c r="D21">
+        <v>52.470653867265028</v>
+      </c>
+      <c r="E21">
+        <v>52.470653867265028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>52.474292780898992</v>
+      </c>
+      <c r="C22">
+        <v>52.492928460599835</v>
+      </c>
+      <c r="D22">
+        <v>52.492928460599835</v>
+      </c>
+      <c r="E22">
+        <v>52.492928460599835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>53.11074537819637</v>
+      </c>
+      <c r="C23">
+        <v>52.483156941674679</v>
+      </c>
+      <c r="D23">
+        <v>52.483156941674679</v>
+      </c>
+      <c r="E23">
+        <v>52.483156941674679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>52.50926334189127</v>
+      </c>
+      <c r="C24">
+        <v>52.498564476068594</v>
+      </c>
+      <c r="D24">
+        <v>52.498564476068594</v>
+      </c>
+      <c r="E24">
+        <v>52.498564476068594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>52.556232881805116</v>
+      </c>
+      <c r="C25">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="D25">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="E25">
+        <v>52.492829648390483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>52.53074046979782</v>
+      </c>
+      <c r="C26">
+        <v>52.493719039220636</v>
+      </c>
+      <c r="D26">
+        <v>52.493719039220636</v>
+      </c>
+      <c r="E26">
+        <v>52.493719039220636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>52.486411672407776</v>
+      </c>
+      <c r="C27">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="D27">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="E27">
+        <v>52.492138025867767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>52.872152747307879</v>
+      </c>
+      <c r="C28">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="D28">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="E28">
+        <v>52.492829648390483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>52.473997620234712</v>
+      </c>
+      <c r="C29">
+        <v>52.496487198273876</v>
+      </c>
+      <c r="D29">
+        <v>52.496487198273876</v>
+      </c>
+      <c r="E29">
+        <v>52.496487198273876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>52.664040572465893</v>
+      </c>
+      <c r="C30">
+        <v>52.497080604835972</v>
+      </c>
+      <c r="D30">
+        <v>52.497080604835972</v>
+      </c>
+      <c r="E30">
+        <v>52.497080604835972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>52.510552947370137</v>
+      </c>
+      <c r="C31">
+        <v>52.486214346549282</v>
+      </c>
+      <c r="D31">
+        <v>52.486214346549282</v>
+      </c>
+      <c r="E31">
+        <v>52.486214346549282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>52.712204138100361</v>
+      </c>
+      <c r="C32">
+        <v>52.474391172245049</v>
+      </c>
+      <c r="D32">
+        <v>52.474391172245049</v>
+      </c>
+      <c r="E32">
+        <v>52.474391172245049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>52.426541825089373</v>
+      </c>
+      <c r="C33">
+        <v>52.470064060362489</v>
+      </c>
+      <c r="D33">
+        <v>52.470064060362489</v>
+      </c>
+      <c r="E33">
+        <v>52.470064060362489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>53.13977769981031</v>
+      </c>
+      <c r="C34">
+        <v>52.508569097522226</v>
+      </c>
+      <c r="D34">
+        <v>52.508569097522226</v>
+      </c>
+      <c r="E34">
+        <v>52.508569097522226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>52.149193260039965</v>
+      </c>
+      <c r="C35">
+        <v>52.490063818907643</v>
+      </c>
+      <c r="D35">
+        <v>52.490063818907643</v>
+      </c>
+      <c r="E35">
+        <v>52.490063818907643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>52.262493496192931</v>
+      </c>
+      <c r="C36">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="D36">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="E36">
+        <v>52.490360073542561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>52.384511436802292</v>
+      </c>
+      <c r="C37">
+        <v>52.488089304293482</v>
+      </c>
+      <c r="D37">
+        <v>52.488089304293482</v>
+      </c>
+      <c r="E37">
+        <v>52.488089304293482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>52.506090558904418</v>
+      </c>
+      <c r="C38">
+        <v>52.525460777534512</v>
+      </c>
+      <c r="D38">
+        <v>52.525460777534512</v>
+      </c>
+      <c r="E38">
+        <v>52.525460777534512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>52.477245491371278</v>
+      </c>
+      <c r="C39">
+        <v>52.491248958720973</v>
+      </c>
+      <c r="D39">
+        <v>52.491248958720973</v>
+      </c>
+      <c r="E39">
+        <v>52.491248958720973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>52.246125653085194</v>
+      </c>
+      <c r="C40">
+        <v>52.47783627444322</v>
+      </c>
+      <c r="D40">
+        <v>52.47783627444322</v>
+      </c>
+      <c r="E40">
+        <v>52.47783627444322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>52.040554249016715</v>
+      </c>
+      <c r="C41">
+        <v>52.494806319863791</v>
+      </c>
+      <c r="D41">
+        <v>52.494806319863791</v>
+      </c>
+      <c r="E41">
+        <v>52.494806319863791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>52.085033409123369</v>
+      </c>
+      <c r="C42">
+        <v>52.488385424262617</v>
+      </c>
+      <c r="D42">
+        <v>52.488385424262617</v>
+      </c>
+      <c r="E42">
+        <v>52.488385424262617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>52.48029873599215</v>
+      </c>
+      <c r="C43">
+        <v>52.479412088981206</v>
+      </c>
+      <c r="D43">
+        <v>52.479412088981206</v>
+      </c>
+      <c r="E43">
+        <v>52.479412088981206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>52.735233736412525</v>
+      </c>
+      <c r="C44">
+        <v>52.489471370258052</v>
+      </c>
+      <c r="D44">
+        <v>52.489471370258052</v>
+      </c>
+      <c r="E44">
+        <v>52.489471370258052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>52.527551963386315</v>
+      </c>
+      <c r="C45">
+        <v>52.507379222453068</v>
+      </c>
+      <c r="D45">
+        <v>52.507379222453068</v>
+      </c>
+      <c r="E45">
+        <v>52.507379222453068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>52.541419070552955</v>
+      </c>
+      <c r="C46">
+        <v>52.491940439661221</v>
+      </c>
+      <c r="D46">
+        <v>52.491940439661221</v>
+      </c>
+      <c r="E46">
+        <v>52.491940439661221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>52.510354521600519</v>
+      </c>
+      <c r="C47">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="D47">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="E47">
+        <v>52.490360073542561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>52.518895026832418</v>
+      </c>
+      <c r="C48">
+        <v>52.501434732209532</v>
+      </c>
+      <c r="D48">
+        <v>52.501434732209532</v>
+      </c>
+      <c r="E48">
+        <v>52.501434732209532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>52.660547311718119</v>
+      </c>
+      <c r="C49">
+        <v>52.502523946479187</v>
+      </c>
+      <c r="D49">
+        <v>52.502523946479187</v>
+      </c>
+      <c r="E49">
+        <v>52.502523946479187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>52.432287170374366</v>
+      </c>
+      <c r="C50">
+        <v>52.485523776640768</v>
+      </c>
+      <c r="D50">
+        <v>52.485523776640768</v>
+      </c>
+      <c r="E50">
+        <v>52.485523776640768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>52.587931513359493</v>
+      </c>
+      <c r="C51">
+        <v>52.49510289819689</v>
+      </c>
+      <c r="D51">
+        <v>52.49510289819689</v>
+      </c>
+      <c r="E51">
+        <v>52.49510289819689</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
